--- a/election_votar_data/LOHAGARA/ADHUNAGAR/152552/152552_com_1241_male_without_photo_71_2025-11-24.pdf.xlsx
+++ b/election_votar_data/LOHAGARA/ADHUNAGAR/152552/152552_com_1241_male_without_photo_71_2025-11-24.pdf.xlsx
@@ -9891,7 +9891,7 @@
       </c>
       <c r="F225" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ১৮/০৩/১৯৭৭</t>
         </is>
       </c>
       <c r="G225" s="3" t="inlineStr">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="F232" s="3" t="inlineStr">
         <is>
-          <t>মিস্ত্রী</t>
+          <t>মিস্ত্রী জন্ম তারিখ:০৫/১০/২০০০</t>
         </is>
       </c>
       <c r="G232" s="3" t="inlineStr">
@@ -49833,7 +49833,7 @@
       </c>
       <c r="F1176" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ১৯/০৮/১৯৬২</t>
         </is>
       </c>
       <c r="G1176" s="3" t="inlineStr">
@@ -50085,7 +50085,7 @@
       </c>
       <c r="F1182" s="3" t="inlineStr">
         <is>
-          <t>কৃষক</t>
+          <t>কৃষক জন্ম তারিখ: ২১/০৭/১৯৮৯</t>
         </is>
       </c>
       <c r="G1182" s="3" t="inlineStr">
